--- a/datas/市场温度计.xlsx
+++ b/datas/市场温度计.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ft\DOCUME~1\MobaXterm\slash\RemoteFiles\20580392_2_0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ft\DOCUME~1\MobaXterm\slash\RemoteFiles\67738_3_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE3AB07-EA37-4F2A-BF6F-23400ECAF1A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19092C7-AB07-4ED2-A39D-674703701262}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GDP" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="179">
   <si>
     <t>季度</t>
   </si>
@@ -595,6 +595,9 @@
   </si>
   <si>
     <t>2019/11</t>
+  </si>
+  <si>
+    <t>2019/12</t>
   </si>
 </sst>
 </file>
@@ -2869,7 +2872,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400" b="0" strike="noStrike" spc="-1">
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -4920,11 +4923,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
+      <selection pane="bottomLeft" activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
@@ -5098,7 +5101,7 @@
         <v>155.12</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" ref="C14:C57" si="1">(B14-B2)/B2</f>
+        <f t="shared" ref="C14:C58" si="1">(B14-B2)/B2</f>
         <v>-0.68821980584085374</v>
       </c>
       <c r="D14" s="5">
@@ -5438,7 +5441,7 @@
         <v>0.28432500261424237</v>
       </c>
       <c r="D35" s="5">
-        <f t="shared" ref="D35:D57" si="2">(B35-B34)/B34</f>
+        <f t="shared" ref="D35:D58" si="2">(B35-B34)/B34</f>
         <v>0.26319037334156115</v>
       </c>
     </row>
@@ -5794,20 +5797,36 @@
         <v>4.1194255479969896E-2</v>
       </c>
     </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B58" s="13">
+        <v>80.930000000000007</v>
+      </c>
+      <c r="C58" s="5">
+        <f t="shared" si="1"/>
+        <v>-5.1675650339817157E-2</v>
+      </c>
+      <c r="D58" s="5">
+        <f t="shared" si="2"/>
+        <v>-2.0810647307924968E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D120" sqref="D120:D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -7344,7 +7363,7 @@
         <v>559667.07999999996</v>
       </c>
       <c r="C99" s="11">
-        <f t="shared" ref="C99:C130" si="6">(B99-B98)/B98</f>
+        <f t="shared" ref="C99:C120" si="6">(B99-B98)/B98</f>
         <v>-3.8580840549654952E-2</v>
       </c>
       <c r="D99" s="11">
@@ -7524,7 +7543,7 @@
         <v>3.0318844475909421E-2</v>
       </c>
       <c r="D110" s="11">
-        <f t="shared" ref="D110:D141" si="7">(B110-B98)/B98</f>
+        <f t="shared" ref="D110:D121" si="7">(B110-B98)/B98</f>
         <v>-0.15914073858822206</v>
       </c>
     </row>
@@ -7670,6 +7689,38 @@
       <c r="D119" s="11">
         <f t="shared" si="7"/>
         <v>0.23927602335807671</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A120" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B120" s="9">
+        <v>595013.91</v>
+      </c>
+      <c r="C120" s="11">
+        <f>(B120-B119)/B119</f>
+        <v>3.5542361496478493E-3</v>
+      </c>
+      <c r="D120" s="11">
+        <f t="shared" si="7"/>
+        <v>0.22526239667830283</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A121" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B121" s="9">
+        <v>631933.49</v>
+      </c>
+      <c r="C121" s="11">
+        <f>(B121-B120)/B120</f>
+        <v>6.2048263712019699E-2</v>
+      </c>
+      <c r="D121" s="11">
+        <f t="shared" si="7"/>
+        <v>0.33015641570491522</v>
       </c>
     </row>
   </sheetData>
